--- a/zibs2024/mappable/nl.zorg.DispenseRequest-v4.0(2024EN).xlsx
+++ b/zibs2024/mappable/nl.zorg.DispenseRequest-v4.0(2024EN).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/zibs2024/mappable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7061FF17324D0EE04DB5689B165D3E90B0F8E70B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD7ACF9-415B-4DEE-8DF1-4B8C56ED71CF}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_7061FF17324D0EE04DB5689B165D3E90B0F8E70B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9ACDB5A-FC55-4D84-84E1-72016A98B250}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4140" yWindow="4080" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,10 +314,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,13 +628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,7 +917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -933,7 +939,7 @@
       <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="s">
